--- a/Consultants List Counties.xlsx
+++ b/Consultants List Counties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59f95b2d0f4db151/AOP/Scripting_Test_Map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59f95b2d0f4db151/Documents/GitHub/AOP_Soil_consultants_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="13_ncr:1_{BA0575DB-4B89-45A9-B21C-86C312D85271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A196B75-0A76-4CCA-96B9-7039276CFBCA}"/>
+  <xr:revisionPtr revIDLastSave="1095" documentId="13_ncr:1_{BA0575DB-4B89-45A9-B21C-86C312D85271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1027D1B1-4C25-4D07-A67E-20F9877343C7}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="21811" windowHeight="7928" tabRatio="665" firstSheet="1" activeTab="1" xr2:uid="{8103ACAC-0C30-4F40-9DF3-C479A1348A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="665" firstSheet="1" activeTab="1" xr2:uid="{8103ACAC-0C30-4F40-9DF3-C479A1348A71}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPFEED_Data_By_Cty" sheetId="8" state="hidden" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="512">
   <si>
     <t>Buckingham, Greg</t>
   </si>
@@ -982,9 +982,6 @@
     <t>7524 US 68</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>Miller</t>
   </si>
   <si>
@@ -1549,12 +1546,6 @@
     <t>Steve</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Nathan Wright, Steve Ross, Barry Cavanna, Dan King, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Nathan Wright, Steve Ross, Barry Cavanna, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Nathan Wright, Steve Ross, Dan King, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
@@ -1579,27 +1570,18 @@
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Barry Cavanna, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Barry Cavanna, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Barry Cavanna, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Daniel King, Nathan Wright, Cavanna Barry, Dan King, Richard Buzard, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
     <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Richard Griffin, Barry Cavanna, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Larry Milliron, Barry Cavanna, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
     <t>Mitchel</t>
   </si>
   <si>
@@ -1627,31 +1609,73 @@
     <t>6702 Haggerty Rd</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steven Miller, Steve Ross, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Richard Griffin, Todd Houser, Jeff Rice, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Richard Griffin, Todd Houser, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Barry Cavanna, Todd Houser, Dan King, Jeff Rice, Steve Ross, Mitchel Strain, Nathan Wright, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Richard Griffin,Todd Houser, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Matthew Deaton, Todd Houser, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
-    <t>Julie Weatherington-Rice (Referrals only), Barry Cavanna, Todd Houser,  Dan King, Jeff Rice, Steve Ross, Mitchel Strain, Nathan Wright, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
-  </si>
-  <si>
     <t>Julie Weatherington-Rice (Referrals only), Stephen Hamilton, Todd Houser, Dan Michael, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
   <si>
-    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Ross, Mitchel Strain,*Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Miller, Steve Ross, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Matthew Deaton, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Steve Miller, Nathan Wright, Steve Ross, Barry Cavanna, Dan King, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Matthew Deaton, Greg Buckingham, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Steve Miller, Nathan Wright, Steve Ross, Barry Cavanna, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Richard Griffin, Todd Houser, Jeff Rice, Mitchel Strain, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Richard Griffin, Todd Houser, Steve Miller, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Miller, Nathan Wright, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Steve Miller, Duane Wood, Barry Cavanna, Dan King, Richard Buzard, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Steve Miller, Nathan Wright, Steve Ross, Barry Cavanna, Dan King, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Barry Cavanna, Todd Houser, Steve Miller, Dan King, Jeff Rice, Steve Ross, Mitchel Strain, Nathan Wright, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Miller, Steve Ross, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Matthew Deaton, Steve Miller, Todd Houser, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Steve Miller, Duane Wood, Daniel King, Nathan Wright, Cavanna Barry, Dan King, Richard Buzard, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Matthew Deaton, Steve Miller, Greg Buckingham, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Richard Griffin, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Stephen Hamilton, Todd Houser, Dan Michael, Steve Miller, Mitchel Strain, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Steve Miller, Nathan Wright, Steve Ross, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Steve Ross, Steve Miller, Mitchel Strain,*Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Duane Wood, Larry Milliron, Barry Cavanna, Dan King, Richard Buzard, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
+  </si>
+  <si>
+    <t>Julie Weatherington-Rice (Referrals only), Todd Houser, Jeff Rice, Nathan Wright, Steve Ross, Steve Miller, *Frank Gibbs, *James Kerr, *Steve Prebonick, *Joe Ringler</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1843,10 +1867,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2084,6 +2104,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2436,24 +2460,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -2494,16 +2518,16 @@
         <v>232</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2511,53 +2535,53 @@
         <v>39001</v>
       </c>
       <c r="C2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" t="s">
-        <v>359</v>
-      </c>
       <c r="F2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J2" t="s">
         <v>365</v>
       </c>
-      <c r="H2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>366</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>367</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>368</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>369</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>370</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>371</v>
-      </c>
-      <c r="P2" t="s">
-        <v>372</v>
       </c>
       <c r="R2" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,C2:P2)</f>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2565,53 +2589,53 @@
         <v>39003</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" t="s">
         <v>366</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>367</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>368</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>369</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>370</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>371</v>
-      </c>
-      <c r="P3" t="s">
-        <v>372</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R66" si="0">_xlfn.TEXTJOIN(", ",TRUE,C3:P3)</f>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2619,53 +2643,53 @@
         <v>39005</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" t="s">
         <v>374</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>375</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>376</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>377</v>
       </c>
-      <c r="I4" t="s">
-        <v>378</v>
-      </c>
       <c r="J4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K4" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" t="s">
         <v>367</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>368</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>369</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>370</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>371</v>
-      </c>
-      <c r="P4" t="s">
-        <v>372</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, E. Larry Milliron, Nathan Wright, Barry Cavanna, Dan King, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2673,53 +2697,53 @@
         <v>39007</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" t="s">
         <v>382</v>
       </c>
-      <c r="I5" t="s">
-        <v>383</v>
-      </c>
       <c r="J5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" t="s">
         <v>366</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>367</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>368</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>369</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>370</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>371</v>
-      </c>
-      <c r="P5" t="s">
-        <v>372</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -2727,53 +2751,53 @@
         <v>39009</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K6" t="s">
         <v>366</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>367</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>368</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>369</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>370</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>371</v>
-      </c>
-      <c r="P6" t="s">
-        <v>372</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -2781,53 +2805,53 @@
         <v>39011</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" t="s">
         <v>366</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>367</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>368</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>369</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>370</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>371</v>
-      </c>
-      <c r="P7" t="s">
-        <v>372</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2835,53 +2859,53 @@
         <v>39013</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J8" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" t="s">
         <v>366</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>367</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>368</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>369</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>370</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>371</v>
-      </c>
-      <c r="P8" t="s">
-        <v>372</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -2889,53 +2913,53 @@
         <v>39015</v>
       </c>
       <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" t="s">
         <v>358</v>
       </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" t="s">
-        <v>359</v>
-      </c>
       <c r="F9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" t="s">
         <v>366</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>367</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>368</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>369</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>370</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>371</v>
-      </c>
-      <c r="P9" t="s">
-        <v>372</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -2943,53 +2967,53 @@
         <v>39017</v>
       </c>
       <c r="C10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" t="s">
         <v>358</v>
       </c>
-      <c r="D10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" t="s">
-        <v>359</v>
-      </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" t="s">
         <v>366</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>367</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>368</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>369</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>370</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>371</v>
-      </c>
-      <c r="P10" t="s">
-        <v>372</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2997,53 +3021,53 @@
         <v>39019</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" t="s">
         <v>366</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>367</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>368</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>369</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>370</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>371</v>
-      </c>
-      <c r="P11" t="s">
-        <v>372</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -3051,53 +3075,53 @@
         <v>39021</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" t="s">
         <v>366</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>367</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>368</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>369</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>370</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>371</v>
-      </c>
-      <c r="P12" t="s">
-        <v>372</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -3105,53 +3129,53 @@
         <v>39023</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" t="s">
         <v>366</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>367</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>368</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>369</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>370</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>371</v>
-      </c>
-      <c r="P13" t="s">
-        <v>372</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -3159,53 +3183,53 @@
         <v>39025</v>
       </c>
       <c r="C14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
         <v>358</v>
       </c>
-      <c r="D14" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" t="s">
-        <v>359</v>
-      </c>
       <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
         <v>364</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" t="s">
+        <v>362</v>
+      </c>
+      <c r="J14" t="s">
         <v>365</v>
       </c>
-      <c r="H14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>366</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>367</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>368</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>369</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>370</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>371</v>
-      </c>
-      <c r="P14" t="s">
-        <v>372</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -3213,53 +3237,53 @@
         <v>39027</v>
       </c>
       <c r="C15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
         <v>358</v>
       </c>
-      <c r="D15" t="s">
-        <v>362</v>
-      </c>
-      <c r="E15" t="s">
-        <v>359</v>
-      </c>
       <c r="F15" t="s">
+        <v>363</v>
+      </c>
+      <c r="G15" t="s">
         <v>364</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" t="s">
         <v>365</v>
       </c>
-      <c r="H15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" t="s">
-        <v>363</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>366</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>367</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>368</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>369</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>370</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>371</v>
-      </c>
-      <c r="P15" t="s">
-        <v>372</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -3267,53 +3291,53 @@
         <v>39029</v>
       </c>
       <c r="C16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J16" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" t="s">
         <v>366</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>367</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>368</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>369</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>370</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>371</v>
-      </c>
-      <c r="P16" t="s">
-        <v>372</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -3321,53 +3345,53 @@
         <v>39031</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" t="s">
         <v>366</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>367</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>368</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>369</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>370</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>371</v>
-      </c>
-      <c r="P17" t="s">
-        <v>372</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -3375,53 +3399,53 @@
         <v>39033</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" t="s">
         <v>377</v>
       </c>
-      <c r="G18" t="s">
-        <v>378</v>
-      </c>
       <c r="H18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J18" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" t="s">
         <v>366</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>367</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>368</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>369</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>370</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>371</v>
-      </c>
-      <c r="P18" t="s">
-        <v>372</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, Barry Cavanna, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3429,53 +3453,53 @@
         <v>39035</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" t="s">
         <v>382</v>
       </c>
-      <c r="I19" t="s">
-        <v>383</v>
-      </c>
       <c r="J19" t="s">
+        <v>365</v>
+      </c>
+      <c r="K19" t="s">
         <v>366</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>367</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>368</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>369</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>370</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>371</v>
-      </c>
-      <c r="P19" t="s">
-        <v>372</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -3483,53 +3507,53 @@
         <v>39037</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K20" t="s">
         <v>366</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>367</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>368</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>369</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>370</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>371</v>
-      </c>
-      <c r="P20" t="s">
-        <v>372</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -3537,53 +3561,53 @@
         <v>39039</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J21" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" t="s">
         <v>366</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>367</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>368</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>369</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>370</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>371</v>
-      </c>
-      <c r="P21" t="s">
-        <v>372</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -3591,53 +3615,53 @@
         <v>39041</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J22" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" t="s">
         <v>366</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>367</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>368</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>369</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>370</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>371</v>
-      </c>
-      <c r="P22" t="s">
-        <v>372</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Steven A. Miller, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -3645,53 +3669,53 @@
         <v>39043</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G23" t="s">
         <v>376</v>
       </c>
-      <c r="G23" t="s">
-        <v>377</v>
-      </c>
       <c r="H23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J23" t="s">
+        <v>365</v>
+      </c>
+      <c r="K23" t="s">
         <v>366</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>367</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>368</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>369</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>370</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>371</v>
-      </c>
-      <c r="P23" t="s">
-        <v>372</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Nathan Wright, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -3699,53 +3723,53 @@
         <v>39045</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J24" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" t="s">
         <v>366</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>367</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>368</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>369</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>370</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>371</v>
-      </c>
-      <c r="P24" t="s">
-        <v>372</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3753,53 +3777,53 @@
         <v>39047</v>
       </c>
       <c r="C25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" t="s">
         <v>358</v>
       </c>
-      <c r="D25" t="s">
-        <v>362</v>
-      </c>
-      <c r="E25" t="s">
-        <v>359</v>
-      </c>
       <c r="F25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" t="s">
+        <v>362</v>
+      </c>
+      <c r="J25" t="s">
         <v>365</v>
       </c>
-      <c r="H25" t="s">
-        <v>363</v>
-      </c>
-      <c r="I25" t="s">
-        <v>363</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>366</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>367</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>368</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>369</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>370</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>371</v>
-      </c>
-      <c r="P25" t="s">
-        <v>372</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Matthew Deaton, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -3807,53 +3831,53 @@
         <v>39049</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J26" t="s">
+        <v>365</v>
+      </c>
+      <c r="K26" t="s">
         <v>366</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>367</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>368</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>369</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>370</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>371</v>
-      </c>
-      <c r="P26" t="s">
-        <v>372</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -3861,53 +3885,53 @@
         <v>39051</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K27" t="s">
         <v>366</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>367</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>368</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>369</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>370</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>371</v>
-      </c>
-      <c r="P27" t="s">
-        <v>372</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -3915,53 +3939,53 @@
         <v>39053</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J28" t="s">
+        <v>365</v>
+      </c>
+      <c r="K28" t="s">
         <v>366</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>367</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>368</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>369</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>370</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>371</v>
-      </c>
-      <c r="P28" t="s">
-        <v>372</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -3969,53 +3993,53 @@
         <v>39055</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" t="s">
+        <v>381</v>
+      </c>
+      <c r="I29" t="s">
         <v>382</v>
       </c>
-      <c r="I29" t="s">
-        <v>383</v>
-      </c>
       <c r="J29" t="s">
+        <v>365</v>
+      </c>
+      <c r="K29" t="s">
         <v>366</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>367</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>368</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>369</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>370</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>371</v>
-      </c>
-      <c r="P29" t="s">
-        <v>372</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -4023,53 +4047,53 @@
         <v>39057</v>
       </c>
       <c r="C30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" t="s">
         <v>358</v>
       </c>
-      <c r="D30" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" t="s">
-        <v>359</v>
-      </c>
       <c r="F30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" t="s">
         <v>366</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>367</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>368</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>369</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>370</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>371</v>
-      </c>
-      <c r="P30" t="s">
-        <v>372</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Matthew Deaton, Jason Sneed, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -4077,53 +4101,53 @@
         <v>39059</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J31" t="s">
+        <v>365</v>
+      </c>
+      <c r="K31" t="s">
         <v>366</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>367</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>368</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>369</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>370</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>371</v>
-      </c>
-      <c r="P31" t="s">
-        <v>372</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -4131,53 +4155,53 @@
         <v>39061</v>
       </c>
       <c r="C32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" t="s">
         <v>358</v>
       </c>
-      <c r="D32" t="s">
-        <v>362</v>
-      </c>
-      <c r="E32" t="s">
-        <v>359</v>
-      </c>
       <c r="F32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J32" t="s">
+        <v>365</v>
+      </c>
+      <c r="K32" t="s">
         <v>366</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>367</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>368</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>369</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>370</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>371</v>
-      </c>
-      <c r="P32" t="s">
-        <v>372</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -4185,53 +4209,53 @@
         <v>39063</v>
       </c>
       <c r="C33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J33" t="s">
+        <v>365</v>
+      </c>
+      <c r="K33" t="s">
         <v>366</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>367</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>368</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>369</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>370</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>371</v>
-      </c>
-      <c r="P33" t="s">
-        <v>372</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -4239,53 +4263,53 @@
         <v>39065</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J34" t="s">
+        <v>365</v>
+      </c>
+      <c r="K34" t="s">
         <v>366</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>367</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>368</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>369</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>370</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>371</v>
-      </c>
-      <c r="P34" t="s">
-        <v>372</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -4293,53 +4317,53 @@
         <v>39067</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J35" t="s">
+        <v>365</v>
+      </c>
+      <c r="K35" t="s">
         <v>366</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>367</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>368</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>369</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>370</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>371</v>
-      </c>
-      <c r="P35" t="s">
-        <v>372</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Barry Cavanna, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -4347,53 +4371,53 @@
         <v>39069</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
+        <v>365</v>
+      </c>
+      <c r="K36" t="s">
         <v>366</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>367</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>368</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>369</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>370</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>371</v>
-      </c>
-      <c r="P36" t="s">
-        <v>372</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -4401,53 +4425,53 @@
         <v>39071</v>
       </c>
       <c r="C37" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" t="s">
         <v>358</v>
       </c>
-      <c r="D37" t="s">
-        <v>362</v>
-      </c>
-      <c r="E37" t="s">
-        <v>359</v>
-      </c>
       <c r="F37" t="s">
+        <v>363</v>
+      </c>
+      <c r="G37" t="s">
         <v>364</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>362</v>
+      </c>
+      <c r="I37" t="s">
+        <v>362</v>
+      </c>
+      <c r="J37" t="s">
         <v>365</v>
       </c>
-      <c r="H37" t="s">
-        <v>363</v>
-      </c>
-      <c r="I37" t="s">
-        <v>363</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>366</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>367</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>368</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>369</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>370</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>371</v>
-      </c>
-      <c r="P37" t="s">
-        <v>372</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -4455,53 +4479,53 @@
         <v>39073</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
+        <v>364</v>
+      </c>
+      <c r="H38" t="s">
+        <v>362</v>
+      </c>
+      <c r="I38" t="s">
+        <v>362</v>
+      </c>
+      <c r="J38" t="s">
         <v>365</v>
       </c>
-      <c r="H38" t="s">
-        <v>363</v>
-      </c>
-      <c r="I38" t="s">
-        <v>363</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>366</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>367</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>368</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>369</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>370</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>371</v>
-      </c>
-      <c r="P38" t="s">
-        <v>372</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -4509,53 +4533,53 @@
         <v>39075</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E39" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" t="s">
         <v>374</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>375</v>
       </c>
-      <c r="G39" t="s">
-        <v>376</v>
-      </c>
       <c r="H39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
         <v>366</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>367</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>368</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>369</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>370</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>371</v>
-      </c>
-      <c r="P39" t="s">
-        <v>372</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, E. Larry Milliron, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -4563,53 +4587,53 @@
         <v>39077</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G40" t="s">
         <v>376</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>377</v>
       </c>
-      <c r="H40" t="s">
-        <v>378</v>
-      </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
         <v>366</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>367</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>368</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>369</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>370</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>371</v>
-      </c>
-      <c r="P40" t="s">
-        <v>372</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Nathan Wright, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -4617,53 +4641,53 @@
         <v>39079</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
         <v>365</v>
       </c>
-      <c r="H41" t="s">
-        <v>363</v>
-      </c>
-      <c r="I41" t="s">
-        <v>363</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>366</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>367</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>368</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>369</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>370</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>371</v>
-      </c>
-      <c r="P41" t="s">
-        <v>372</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -4671,53 +4695,53 @@
         <v>39081</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
         <v>366</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>367</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>368</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>369</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>370</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>371</v>
-      </c>
-      <c r="P42" t="s">
-        <v>372</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -4725,53 +4749,53 @@
         <v>39083</v>
       </c>
       <c r="C43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
         <v>377</v>
       </c>
-      <c r="G43" t="s">
-        <v>378</v>
-      </c>
       <c r="H43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
         <v>366</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>367</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>368</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>369</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>370</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>371</v>
-      </c>
-      <c r="P43" t="s">
-        <v>372</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -4779,53 +4803,53 @@
         <v>39085</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H44" t="s">
+        <v>381</v>
+      </c>
+      <c r="I44" t="s">
         <v>382</v>
       </c>
-      <c r="I44" t="s">
-        <v>383</v>
-      </c>
       <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
         <v>366</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>367</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>368</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>369</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>370</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>371</v>
-      </c>
-      <c r="P44" t="s">
-        <v>372</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -4833,53 +4857,53 @@
         <v>39087</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G45" t="s">
+        <v>364</v>
+      </c>
+      <c r="H45" t="s">
+        <v>362</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
         <v>365</v>
       </c>
-      <c r="H45" t="s">
-        <v>363</v>
-      </c>
-      <c r="I45" t="s">
-        <v>363</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>366</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>367</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>368</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>369</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>370</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>371</v>
-      </c>
-      <c r="P45" t="s">
-        <v>372</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -4887,53 +4911,53 @@
         <v>39089</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
         <v>366</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>367</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>368</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>369</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>370</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>371</v>
-      </c>
-      <c r="P46" t="s">
-        <v>372</v>
       </c>
       <c r="R46" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -4941,53 +4965,53 @@
         <v>39091</v>
       </c>
       <c r="C47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
         <v>366</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>367</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>368</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>369</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>370</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>371</v>
-      </c>
-      <c r="P47" t="s">
-        <v>372</v>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -4995,53 +5019,53 @@
         <v>39093</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" t="s">
         <v>376</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>377</v>
       </c>
-      <c r="H48" t="s">
-        <v>378</v>
-      </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
         <v>366</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>367</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>368</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>369</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>370</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>371</v>
-      </c>
-      <c r="P48" t="s">
-        <v>372</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Nathan Wright, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -5049,53 +5073,53 @@
         <v>39095</v>
       </c>
       <c r="C49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
         <v>366</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>367</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>368</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>369</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>370</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>371</v>
-      </c>
-      <c r="P49" t="s">
-        <v>372</v>
       </c>
       <c r="R49" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -5103,53 +5127,53 @@
         <v>39097</v>
       </c>
       <c r="C50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J50" t="s">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s">
         <v>366</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>367</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>368</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>369</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>370</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>371</v>
-      </c>
-      <c r="P50" t="s">
-        <v>372</v>
       </c>
       <c r="R50" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -5157,53 +5181,53 @@
         <v>39099</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J51" t="s">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s">
         <v>366</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>367</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>368</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>369</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>370</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>371</v>
-      </c>
-      <c r="P51" t="s">
-        <v>372</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -5211,53 +5235,53 @@
         <v>39101</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s">
         <v>366</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>367</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>368</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>369</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>370</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>371</v>
-      </c>
-      <c r="P52" t="s">
-        <v>372</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>174</v>
       </c>
@@ -5265,53 +5289,53 @@
         <v>39103</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E53" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" t="s">
         <v>374</v>
-      </c>
-      <c r="F53" t="s">
-        <v>375</v>
       </c>
       <c r="G53" t="s">
         <v>43</v>
       </c>
       <c r="H53" t="s">
+        <v>375</v>
+      </c>
+      <c r="I53" t="s">
         <v>376</v>
       </c>
-      <c r="I53" t="s">
-        <v>377</v>
-      </c>
       <c r="J53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s">
+        <v>367</v>
+      </c>
+      <c r="M53" t="s">
         <v>368</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>369</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>370</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>371</v>
-      </c>
-      <c r="P53" t="s">
-        <v>372</v>
       </c>
       <c r="R53" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, Daniel King, E. Larry Milliron, Nathan Wright, Cavanna Barry, Dan King, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -5319,53 +5343,53 @@
         <v>39105</v>
       </c>
       <c r="C54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
         <v>366</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>367</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>368</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>369</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>370</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>371</v>
-      </c>
-      <c r="P54" t="s">
-        <v>372</v>
       </c>
       <c r="R54" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -5373,53 +5397,53 @@
         <v>39107</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J55" t="s">
+        <v>365</v>
+      </c>
+      <c r="K55" t="s">
         <v>366</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>367</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>368</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>369</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>370</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>371</v>
-      </c>
-      <c r="P55" t="s">
-        <v>372</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>177</v>
       </c>
@@ -5427,53 +5451,53 @@
         <v>39109</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J56" t="s">
+        <v>365</v>
+      </c>
+      <c r="K56" t="s">
         <v>366</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>367</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>368</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>369</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>370</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>371</v>
-      </c>
-      <c r="P56" t="s">
-        <v>372</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -5481,53 +5505,53 @@
         <v>39111</v>
       </c>
       <c r="C57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J57" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" t="s">
         <v>366</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>367</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>368</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>369</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>370</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>371</v>
-      </c>
-      <c r="P57" t="s">
-        <v>372</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -5535,53 +5559,53 @@
         <v>39113</v>
       </c>
       <c r="C58" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" t="s">
         <v>358</v>
       </c>
-      <c r="D58" t="s">
-        <v>362</v>
-      </c>
-      <c r="E58" t="s">
-        <v>359</v>
-      </c>
       <c r="F58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" t="s">
         <v>366</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>367</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>368</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>369</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>370</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>371</v>
-      </c>
-      <c r="P58" t="s">
-        <v>372</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -5589,53 +5613,53 @@
         <v>39115</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59" t="s">
         <v>366</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>367</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>368</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>369</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>370</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>371</v>
-      </c>
-      <c r="P59" t="s">
-        <v>372</v>
       </c>
       <c r="R59" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -5643,53 +5667,53 @@
         <v>39117</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F60" t="s">
+        <v>376</v>
+      </c>
+      <c r="G60" t="s">
+        <v>379</v>
+      </c>
+      <c r="H60" t="s">
         <v>377</v>
       </c>
-      <c r="G60" t="s">
-        <v>380</v>
-      </c>
-      <c r="H60" t="s">
-        <v>378</v>
-      </c>
       <c r="I60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J60" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" t="s">
         <v>366</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>367</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>368</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>369</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>370</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>371</v>
-      </c>
-      <c r="P60" t="s">
-        <v>372</v>
       </c>
       <c r="R60" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, Steve Ross, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -5697,53 +5721,53 @@
         <v>39119</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J61" t="s">
+        <v>365</v>
+      </c>
+      <c r="K61" t="s">
         <v>366</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>367</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>368</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>369</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>370</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>371</v>
-      </c>
-      <c r="P61" t="s">
-        <v>372</v>
       </c>
       <c r="R61" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -5751,53 +5775,53 @@
         <v>39121</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J62" t="s">
+        <v>365</v>
+      </c>
+      <c r="K62" t="s">
         <v>366</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>367</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>368</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>369</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>370</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>371</v>
-      </c>
-      <c r="P62" t="s">
-        <v>372</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -5805,53 +5829,53 @@
         <v>39123</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J63" t="s">
+        <v>365</v>
+      </c>
+      <c r="K63" t="s">
         <v>366</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>367</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>368</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>369</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>370</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>371</v>
-      </c>
-      <c r="P63" t="s">
-        <v>372</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -5859,53 +5883,53 @@
         <v>39125</v>
       </c>
       <c r="C64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J64" t="s">
+        <v>365</v>
+      </c>
+      <c r="K64" t="s">
         <v>366</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>367</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>368</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>369</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>370</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>371</v>
-      </c>
-      <c r="P64" t="s">
-        <v>372</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -5913,53 +5937,53 @@
         <v>39127</v>
       </c>
       <c r="C65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J65" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65" t="s">
         <v>366</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>367</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>368</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>369</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>370</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>371</v>
-      </c>
-      <c r="P65" t="s">
-        <v>372</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -5967,53 +5991,53 @@
         <v>39129</v>
       </c>
       <c r="C66" t="s">
+        <v>357</v>
+      </c>
+      <c r="D66" t="s">
+        <v>361</v>
+      </c>
+      <c r="E66" t="s">
         <v>358</v>
       </c>
-      <c r="D66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" t="s">
-        <v>359</v>
-      </c>
       <c r="F66" t="s">
+        <v>364</v>
+      </c>
+      <c r="G66" t="s">
+        <v>362</v>
+      </c>
+      <c r="H66" t="s">
+        <v>362</v>
+      </c>
+      <c r="I66" t="s">
+        <v>362</v>
+      </c>
+      <c r="J66" t="s">
         <v>365</v>
       </c>
-      <c r="G66" t="s">
-        <v>363</v>
-      </c>
-      <c r="H66" t="s">
-        <v>363</v>
-      </c>
-      <c r="I66" t="s">
-        <v>363</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>366</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>367</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>368</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>369</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>370</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>371</v>
-      </c>
-      <c r="P66" t="s">
-        <v>372</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" si="0"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -6021,53 +6045,53 @@
         <v>39131</v>
       </c>
       <c r="C67" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" t="s">
+        <v>361</v>
+      </c>
+      <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="D67" t="s">
-        <v>362</v>
-      </c>
-      <c r="E67" t="s">
-        <v>359</v>
-      </c>
       <c r="F67" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" t="s">
+        <v>362</v>
+      </c>
+      <c r="H67" t="s">
+        <v>362</v>
+      </c>
+      <c r="I67" t="s">
+        <v>362</v>
+      </c>
+      <c r="J67" t="s">
         <v>365</v>
       </c>
-      <c r="G67" t="s">
-        <v>363</v>
-      </c>
-      <c r="H67" t="s">
-        <v>363</v>
-      </c>
-      <c r="I67" t="s">
-        <v>363</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>366</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>367</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>368</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>369</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>370</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>371</v>
-      </c>
-      <c r="P67" t="s">
-        <v>372</v>
       </c>
       <c r="R67" t="str">
         <f t="shared" ref="R67:R89" si="1">_xlfn.TEXTJOIN(", ",TRUE,C67:P67)</f>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -6075,53 +6099,53 @@
         <v>39133</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H68" t="s">
+        <v>381</v>
+      </c>
+      <c r="I68" t="s">
         <v>382</v>
       </c>
-      <c r="I68" t="s">
-        <v>383</v>
-      </c>
       <c r="J68" t="s">
+        <v>365</v>
+      </c>
+      <c r="K68" t="s">
         <v>366</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>367</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>368</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>369</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>370</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>371</v>
-      </c>
-      <c r="P68" t="s">
-        <v>372</v>
       </c>
       <c r="R68" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Barry Cavanna, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -6129,53 +6153,53 @@
         <v>39135</v>
       </c>
       <c r="C69" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" t="s">
         <v>358</v>
       </c>
-      <c r="D69" t="s">
-        <v>362</v>
-      </c>
-      <c r="E69" t="s">
-        <v>359</v>
-      </c>
       <c r="F69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J69" t="s">
+        <v>365</v>
+      </c>
+      <c r="K69" t="s">
         <v>366</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>367</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>368</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>369</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>370</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>371</v>
-      </c>
-      <c r="P69" t="s">
-        <v>372</v>
       </c>
       <c r="R69" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -6183,53 +6207,53 @@
         <v>39137</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J70" t="s">
+        <v>365</v>
+      </c>
+      <c r="K70" t="s">
         <v>366</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>367</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>368</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>369</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>370</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>371</v>
-      </c>
-      <c r="P70" t="s">
-        <v>372</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -6237,53 +6261,53 @@
         <v>39139</v>
       </c>
       <c r="C71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F71" t="s">
+        <v>375</v>
+      </c>
+      <c r="G71" t="s">
         <v>376</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>377</v>
       </c>
-      <c r="H71" t="s">
-        <v>378</v>
-      </c>
       <c r="I71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J71" t="s">
+        <v>365</v>
+      </c>
+      <c r="K71" t="s">
         <v>366</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>367</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>368</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>369</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>370</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>371</v>
-      </c>
-      <c r="P71" t="s">
-        <v>372</v>
       </c>
       <c r="R71" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Nathan Wright, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -6291,53 +6315,53 @@
         <v>39141</v>
       </c>
       <c r="C72" t="s">
+        <v>357</v>
+      </c>
+      <c r="D72" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" t="s">
         <v>358</v>
       </c>
-      <c r="D72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E72" t="s">
-        <v>359</v>
-      </c>
       <c r="F72" t="s">
+        <v>364</v>
+      </c>
+      <c r="G72" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72" t="s">
+        <v>362</v>
+      </c>
+      <c r="I72" t="s">
+        <v>362</v>
+      </c>
+      <c r="J72" t="s">
         <v>365</v>
       </c>
-      <c r="G72" t="s">
-        <v>363</v>
-      </c>
-      <c r="H72" t="s">
-        <v>363</v>
-      </c>
-      <c r="I72" t="s">
-        <v>363</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>366</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>367</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>368</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>369</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>370</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>371</v>
-      </c>
-      <c r="P72" t="s">
-        <v>372</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -6345,53 +6369,53 @@
         <v>39143</v>
       </c>
       <c r="C73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J73" t="s">
+        <v>365</v>
+      </c>
+      <c r="K73" t="s">
         <v>366</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>367</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>368</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>369</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>370</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>371</v>
-      </c>
-      <c r="P73" t="s">
-        <v>372</v>
       </c>
       <c r="R73" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -6399,53 +6423,53 @@
         <v>39145</v>
       </c>
       <c r="C74" t="s">
+        <v>357</v>
+      </c>
+      <c r="D74" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" t="s">
         <v>358</v>
       </c>
-      <c r="D74" t="s">
-        <v>362</v>
-      </c>
-      <c r="E74" t="s">
-        <v>359</v>
-      </c>
       <c r="F74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
+        <v>364</v>
+      </c>
+      <c r="H74" t="s">
+        <v>362</v>
+      </c>
+      <c r="I74" t="s">
+        <v>362</v>
+      </c>
+      <c r="J74" t="s">
         <v>365</v>
       </c>
-      <c r="H74" t="s">
-        <v>363</v>
-      </c>
-      <c r="I74" t="s">
-        <v>363</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>366</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>367</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>368</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>369</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>370</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>371</v>
-      </c>
-      <c r="P74" t="s">
-        <v>372</v>
       </c>
       <c r="R74" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -6453,53 +6477,53 @@
         <v>39147</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J75" t="s">
+        <v>365</v>
+      </c>
+      <c r="K75" t="s">
         <v>366</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>367</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>368</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>369</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>370</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>371</v>
-      </c>
-      <c r="P75" t="s">
-        <v>372</v>
       </c>
       <c r="R75" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -6507,53 +6531,53 @@
         <v>39149</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J76" t="s">
+        <v>365</v>
+      </c>
+      <c r="K76" t="s">
         <v>366</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>367</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>368</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>369</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>370</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>371</v>
-      </c>
-      <c r="P76" t="s">
-        <v>372</v>
       </c>
       <c r="R76" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -6561,53 +6585,53 @@
         <v>39151</v>
       </c>
       <c r="C77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E77" t="s">
+        <v>373</v>
+      </c>
+      <c r="F77" t="s">
         <v>374</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>375</v>
       </c>
-      <c r="G77" t="s">
-        <v>376</v>
-      </c>
       <c r="H77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
+        <v>366</v>
+      </c>
+      <c r="L77" t="s">
         <v>367</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>368</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>369</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>370</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>371</v>
-      </c>
-      <c r="P77" t="s">
-        <v>372</v>
       </c>
       <c r="R77" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, E. Larry Milliron, Richard Buzard, Barry Cavanna, James Fincham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -6615,53 +6639,53 @@
         <v>39153</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J78" t="s">
+        <v>365</v>
+      </c>
+      <c r="K78" t="s">
         <v>366</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>367</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>368</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>369</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>370</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>371</v>
-      </c>
-      <c r="P78" t="s">
-        <v>372</v>
       </c>
       <c r="R78" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>200</v>
       </c>
@@ -6669,53 +6693,53 @@
         <v>39155</v>
       </c>
       <c r="C79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G79" t="s">
+        <v>381</v>
+      </c>
+      <c r="H79" t="s">
         <v>382</v>
       </c>
-      <c r="H79" t="s">
-        <v>383</v>
-      </c>
       <c r="I79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J79" t="s">
+        <v>365</v>
+      </c>
+      <c r="K79" t="s">
         <v>366</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>367</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>368</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>369</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>370</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>371</v>
-      </c>
-      <c r="P79" t="s">
-        <v>372</v>
       </c>
       <c r="R79" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, E. Larry Milliron, Dan King, James Fincham, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>201</v>
       </c>
@@ -6723,53 +6747,53 @@
         <v>39157</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
+        <v>373</v>
+      </c>
+      <c r="F80" t="s">
         <v>374</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>375</v>
       </c>
-      <c r="G80" t="s">
-        <v>376</v>
-      </c>
       <c r="H80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K80" t="s">
+        <v>366</v>
+      </c>
+      <c r="L80" t="s">
         <v>367</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>368</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>369</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>370</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>371</v>
-      </c>
-      <c r="P80" t="s">
-        <v>372</v>
       </c>
       <c r="R80" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, E. Larry Milliron, Richard J. Griffin, Barry Cavanna, Dan King, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -6777,53 +6801,53 @@
         <v>39159</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J81" t="s">
+        <v>365</v>
+      </c>
+      <c r="K81" t="s">
         <v>366</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>367</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>368</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>369</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>370</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>371</v>
-      </c>
-      <c r="P81" t="s">
-        <v>372</v>
       </c>
       <c r="R81" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -6831,53 +6855,53 @@
         <v>39161</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J82" t="s">
+        <v>365</v>
+      </c>
+      <c r="K82" t="s">
         <v>366</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>367</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>368</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>369</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>370</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>371</v>
-      </c>
-      <c r="P82" t="s">
-        <v>372</v>
       </c>
       <c r="R82" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Matthew Deaton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -6885,53 +6909,53 @@
         <v>39163</v>
       </c>
       <c r="C83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G83" t="s">
+        <v>364</v>
+      </c>
+      <c r="H83" t="s">
+        <v>362</v>
+      </c>
+      <c r="I83" t="s">
+        <v>362</v>
+      </c>
+      <c r="J83" t="s">
         <v>365</v>
       </c>
-      <c r="H83" t="s">
-        <v>363</v>
-      </c>
-      <c r="I83" t="s">
-        <v>363</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>366</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>367</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>368</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>369</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>370</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>371</v>
-      </c>
-      <c r="P83" t="s">
-        <v>372</v>
       </c>
       <c r="R83" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -6939,53 +6963,53 @@
         <v>39165</v>
       </c>
       <c r="C84" t="s">
+        <v>357</v>
+      </c>
+      <c r="D84" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" t="s">
         <v>358</v>
       </c>
-      <c r="D84" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" t="s">
-        <v>359</v>
-      </c>
       <c r="F84" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84" t="s">
         <v>364</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
+        <v>362</v>
+      </c>
+      <c r="I84" t="s">
+        <v>362</v>
+      </c>
+      <c r="J84" t="s">
         <v>365</v>
       </c>
-      <c r="H84" t="s">
-        <v>363</v>
-      </c>
-      <c r="I84" t="s">
-        <v>363</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>366</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>367</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>368</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>369</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>370</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>371</v>
-      </c>
-      <c r="P84" t="s">
-        <v>372</v>
       </c>
       <c r="R84" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Dan R. Michael, Jason Sneed, Stephen J. Hamilton, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -6993,53 +7017,53 @@
         <v>39167</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J85" t="s">
+        <v>365</v>
+      </c>
+      <c r="K85" t="s">
         <v>366</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>367</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>368</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>369</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>370</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>371</v>
-      </c>
-      <c r="P85" t="s">
-        <v>372</v>
       </c>
       <c r="R85" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, Richard J. Griffin, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -7047,53 +7071,53 @@
         <v>39169</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E86" t="s">
+        <v>373</v>
+      </c>
+      <c r="F86" t="s">
         <v>374</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>375</v>
       </c>
-      <c r="G86" t="s">
-        <v>376</v>
-      </c>
       <c r="H86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J86" t="s">
+        <v>365</v>
+      </c>
+      <c r="K86" t="s">
         <v>366</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>367</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>368</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>369</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>370</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>371</v>
-      </c>
-      <c r="P86" t="s">
-        <v>372</v>
       </c>
       <c r="R86" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Jeff Rice, L. Duane Wood, E. Larry Milliron, Barry Cavanna, Dan King, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -7101,53 +7125,53 @@
         <v>39171</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J87" t="s">
+        <v>365</v>
+      </c>
+      <c r="K87" t="s">
         <v>366</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>367</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>368</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>369</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>370</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>371</v>
-      </c>
-      <c r="P87" t="s">
-        <v>372</v>
       </c>
       <c r="R87" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -7155,53 +7179,53 @@
         <v>39173</v>
       </c>
       <c r="C88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J88" t="s">
+        <v>365</v>
+      </c>
+      <c r="K88" t="s">
         <v>366</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>367</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>368</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>369</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>370</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>371</v>
-      </c>
-      <c r="P88" t="s">
-        <v>372</v>
       </c>
       <c r="R88" t="str">
         <f t="shared" si="1"/>
         <v>Julie Weatherington-Rice (Referrals only), Todd A. Houser, Nathan Wright, *Greg Buckingham, *Frank Gibbs, *James W. Kerr, *Floyd E. McCleary, *Larry Milliron, *Steve Prebonick, *Joe Ringler</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -7209,46 +7233,46 @@
         <v>39175</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J89" t="s">
+        <v>365</v>
+      </c>
+      <c r="K89" t="s">
         <v>366</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>367</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>368</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>369</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>370</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>371</v>
-      </c>
-      <c r="P89" t="s">
-        <v>372</v>
       </c>
       <c r="R89" t="str">
         <f t="shared" si="1"/>
@@ -7267,15 +7291,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11A904D-FF6A-4117-BFC1-05EAA07203C2}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="152.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="177.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -7283,10 +7309,10 @@
         <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -7294,10 +7320,10 @@
         <v>39001</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -7305,10 +7331,10 @@
         <v>39003</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -7316,10 +7342,10 @@
         <v>39005</v>
       </c>
       <c r="C4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -7327,10 +7353,10 @@
         <v>39007</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -7338,10 +7364,10 @@
         <v>39009</v>
       </c>
       <c r="C6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -7349,10 +7375,10 @@
         <v>39011</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -7360,10 +7386,10 @@
         <v>39013</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -7371,10 +7397,10 @@
         <v>39015</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -7382,10 +7408,10 @@
         <v>39017</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -7393,10 +7419,10 @@
         <v>39019</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -7404,10 +7430,10 @@
         <v>39021</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -7415,10 +7441,10 @@
         <v>39023</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -7426,10 +7452,10 @@
         <v>39025</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -7437,10 +7463,10 @@
         <v>39027</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -7448,10 +7474,10 @@
         <v>39029</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -7459,10 +7485,10 @@
         <v>39031</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -7470,10 +7496,10 @@
         <v>39033</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -7481,10 +7507,10 @@
         <v>39035</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -7492,10 +7518,10 @@
         <v>39037</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -7503,10 +7529,10 @@
         <v>39039</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -7514,10 +7540,10 @@
         <v>39041</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -7525,10 +7551,10 @@
         <v>39043</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -7536,10 +7562,10 @@
         <v>39045</v>
       </c>
       <c r="C24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -7547,10 +7573,10 @@
         <v>39047</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -7558,10 +7584,10 @@
         <v>39049</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -7569,10 +7595,10 @@
         <v>39051</v>
       </c>
       <c r="C27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -7580,10 +7606,10 @@
         <v>39053</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -7591,10 +7617,10 @@
         <v>39055</v>
       </c>
       <c r="C29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -7602,10 +7628,10 @@
         <v>39057</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -7613,10 +7639,10 @@
         <v>39059</v>
       </c>
       <c r="C31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -7624,10 +7650,10 @@
         <v>39061</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -7635,10 +7661,10 @@
         <v>39063</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -7646,10 +7672,10 @@
         <v>39065</v>
       </c>
       <c r="C34" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -7657,10 +7683,10 @@
         <v>39067</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -7668,10 +7694,10 @@
         <v>39069</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -7679,10 +7705,10 @@
         <v>39071</v>
       </c>
       <c r="C37" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -7690,10 +7716,10 @@
         <v>39073</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -7701,10 +7727,10 @@
         <v>39075</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -7712,10 +7738,10 @@
         <v>39077</v>
       </c>
       <c r="C40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -7723,10 +7749,10 @@
         <v>39079</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -7734,10 +7760,10 @@
         <v>39081</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -7745,10 +7771,10 @@
         <v>39083</v>
       </c>
       <c r="C43" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -7756,10 +7782,10 @@
         <v>39085</v>
       </c>
       <c r="C44" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -7767,10 +7793,10 @@
         <v>39087</v>
       </c>
       <c r="C45" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -7778,10 +7804,10 @@
         <v>39089</v>
       </c>
       <c r="C46" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -7789,10 +7815,10 @@
         <v>39091</v>
       </c>
       <c r="C47" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -7800,10 +7826,10 @@
         <v>39093</v>
       </c>
       <c r="C48" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -7811,10 +7837,10 @@
         <v>39095</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -7822,10 +7848,10 @@
         <v>39097</v>
       </c>
       <c r="C50" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -7833,10 +7859,10 @@
         <v>39099</v>
       </c>
       <c r="C51" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -7844,10 +7870,10 @@
         <v>39101</v>
       </c>
       <c r="C52" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>174</v>
       </c>
@@ -7855,10 +7881,10 @@
         <v>39103</v>
       </c>
       <c r="C53" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -7866,10 +7892,10 @@
         <v>39105</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -7877,10 +7903,10 @@
         <v>39107</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>177</v>
       </c>
@@ -7888,10 +7914,10 @@
         <v>39109</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -7899,10 +7925,10 @@
         <v>39111</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -7910,10 +7936,10 @@
         <v>39113</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -7921,10 +7947,10 @@
         <v>39115</v>
       </c>
       <c r="C59" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -7935,7 +7961,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -7943,10 +7969,10 @@
         <v>39119</v>
       </c>
       <c r="C61" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -7954,10 +7980,10 @@
         <v>39121</v>
       </c>
       <c r="C62" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -7965,10 +7991,10 @@
         <v>39123</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -7976,10 +8002,10 @@
         <v>39125</v>
       </c>
       <c r="C64" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -7987,10 +8013,10 @@
         <v>39127</v>
       </c>
       <c r="C65" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -7998,10 +8024,10 @@
         <v>39129</v>
       </c>
       <c r="C66" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -8009,10 +8035,10 @@
         <v>39131</v>
       </c>
       <c r="C67" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -8020,10 +8046,10 @@
         <v>39133</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -8031,10 +8057,10 @@
         <v>39135</v>
       </c>
       <c r="C69" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -8042,10 +8068,10 @@
         <v>39137</v>
       </c>
       <c r="C70" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -8053,10 +8079,10 @@
         <v>39139</v>
       </c>
       <c r="C71" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -8064,10 +8090,10 @@
         <v>39141</v>
       </c>
       <c r="C72" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -8075,10 +8101,10 @@
         <v>39143</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -8086,10 +8112,10 @@
         <v>39145</v>
       </c>
       <c r="C74" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -8097,10 +8123,10 @@
         <v>39147</v>
       </c>
       <c r="C75" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -8108,10 +8134,10 @@
         <v>39149</v>
       </c>
       <c r="C76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -8119,10 +8145,10 @@
         <v>39151</v>
       </c>
       <c r="C77" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -8130,10 +8156,10 @@
         <v>39153</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>200</v>
       </c>
@@ -8141,10 +8167,10 @@
         <v>39155</v>
       </c>
       <c r="C79" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>201</v>
       </c>
@@ -8152,10 +8178,10 @@
         <v>39157</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -8163,10 +8189,10 @@
         <v>39159</v>
       </c>
       <c r="C81" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -8174,10 +8200,10 @@
         <v>39161</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -8185,10 +8211,10 @@
         <v>39163</v>
       </c>
       <c r="C83" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -8196,10 +8222,10 @@
         <v>39165</v>
       </c>
       <c r="C84" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -8207,10 +8233,10 @@
         <v>39167</v>
       </c>
       <c r="C85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -8218,10 +8244,10 @@
         <v>39169</v>
       </c>
       <c r="C86" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>208</v>
       </c>
@@ -8229,10 +8255,10 @@
         <v>39171</v>
       </c>
       <c r="C87" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -8240,10 +8266,10 @@
         <v>39173</v>
       </c>
       <c r="C88" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -8251,7 +8277,7 @@
         <v>39175</v>
       </c>
       <c r="C89" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -8267,32 +8293,32 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.59765625" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.59765625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>219</v>
@@ -8304,39 +8330,39 @@
         <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8345,13 +8371,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" t="s">
         <v>314</v>
-      </c>
-      <c r="I2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" t="s">
-        <v>315</v>
       </c>
       <c r="K2">
         <v>47390</v>
@@ -8362,7 +8388,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -8394,7 +8420,7 @@
         <v>44646</v>
       </c>
       <c r="L3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M3"/>
       <c r="N3" s="15" t="str">
@@ -8402,7 +8428,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -8416,7 +8442,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>236</v>
@@ -8439,7 +8465,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -8456,13 +8482,13 @@
         <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
         <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
         <v>239</v>
@@ -8471,7 +8497,7 @@
         <v>44256</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="15" t="str">
@@ -8479,21 +8505,21 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" t="s">
         <v>280</v>
-      </c>
-      <c r="B6" t="s">
-        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
         <v>282</v>
-      </c>
-      <c r="E6" t="s">
-        <v>283</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
@@ -8502,16 +8528,16 @@
         <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" t="s">
         <v>239</v>
       </c>
       <c r="K6">
-        <v>43074</v>
+        <v>43015</v>
       </c>
       <c r="L6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="17" t="str">
@@ -8519,12 +8545,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
         <v>311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>312</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -8533,16 +8559,16 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
         <v>68</v>
       </c>
       <c r="H7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" t="s">
         <v>332</v>
-      </c>
-      <c r="I7" t="s">
-        <v>333</v>
       </c>
       <c r="J7" t="s">
         <v>239</v>
@@ -8559,9 +8585,9 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>193</v>
@@ -8573,7 +8599,7 @@
         <v>271</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -8591,7 +8617,7 @@
         <v>43315</v>
       </c>
       <c r="L8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M8"/>
       <c r="N8" s="19" t="str">
@@ -8599,7 +8625,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -8607,7 +8633,7 @@
         <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
         <v>276</v>
@@ -8630,7 +8656,7 @@
         <v>45107</v>
       </c>
       <c r="L9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M9"/>
       <c r="N9" s="17" t="str">
@@ -8638,71 +8664,71 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E10" t="s">
+        <v>483</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>484</v>
+      </c>
+      <c r="H10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I10" t="s">
+        <v>487</v>
+      </c>
+      <c r="J10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10">
+        <v>43055</v>
+      </c>
+      <c r="L10" t="s">
         <v>486</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="21">
-        <v>43055</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>492</v>
-      </c>
       <c r="M10" s="17"/>
-      <c r="N10" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N10" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
       </c>
       <c r="D11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" t="s">
         <v>286</v>
-      </c>
-      <c r="E11" t="s">
-        <v>287</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" t="s">
         <v>288</v>
       </c>
-      <c r="H11" t="s">
-        <v>289</v>
-      </c>
       <c r="I11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J11" t="s">
         <v>239</v>
@@ -8711,7 +8737,7 @@
         <v>43085</v>
       </c>
       <c r="L11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M11"/>
       <c r="N11" s="15" t="str">
@@ -8719,7 +8745,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -8727,7 +8753,7 @@
         <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
         <v>262</v>
@@ -8754,7 +8780,7 @@
         <v>43468</v>
       </c>
       <c r="L12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M12" t="s">
         <v>87</v>
@@ -8764,12 +8790,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>106</v>
@@ -8778,17 +8804,17 @@
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>239</v>
@@ -8807,12 +8833,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -8821,16 +8847,16 @@
         <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>239</v>
@@ -8849,12 +8875,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
@@ -8863,19 +8889,19 @@
         <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>239</v>
@@ -8892,12 +8918,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
@@ -8906,7 +8932,7 @@
         <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -8914,7 +8940,7 @@
         <v>205</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>239</v>
@@ -8931,12 +8957,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -8945,13 +8971,13 @@
         <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>197</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>239</v>
@@ -8964,9 +8990,9 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B18" t="s">
         <v>248</v>
@@ -8996,7 +9022,7 @@
         <v>44691</v>
       </c>
       <c r="L18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M18"/>
       <c r="N18" s="18" t="str">
@@ -9004,9 +9030,9 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B19" t="s">
         <v>241</v>
@@ -9041,9 +9067,9 @@
         <v>No</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s">
         <v>153</v>
@@ -9064,7 +9090,7 @@
         <v>247</v>
       </c>
       <c r="I20" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J20" t="s">
         <v>239</v>
@@ -9073,7 +9099,7 @@
         <v>45133</v>
       </c>
       <c r="L20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M20"/>
       <c r="N20" s="18" t="str">
@@ -9081,12 +9107,12 @@
         <v>No</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
@@ -9095,16 +9121,16 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>383</v>
+      </c>
+      <c r="H21" t="s">
         <v>320</v>
       </c>
-      <c r="G21" t="s">
-        <v>384</v>
-      </c>
-      <c r="H21" t="s">
-        <v>321</v>
-      </c>
       <c r="I21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J21" t="s">
         <v>239</v>
@@ -9121,33 +9147,33 @@
         <v>No</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>239</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>42</v>
@@ -9158,9 +9184,9 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
         <v>209</v>
@@ -9172,7 +9198,7 @@
         <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
@@ -9182,7 +9208,7 @@
         <v>252</v>
       </c>
       <c r="I23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J23" t="s">
         <v>239</v>
@@ -9199,7 +9225,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M27" s="17"/>
     </row>
   </sheetData>
@@ -9225,46 +9251,46 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="12" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.265625" customWidth="1"/>
-    <col min="5" max="5" width="24.73046875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="44.3984375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>438</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>TRIM(LEFT(B2,(FIND(",",B2,1)-1)))</f>
         <v>Bailey</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="D2" s="9">
         <v>57826</v>
@@ -9274,19 +9300,19 @@
         <v>No</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f t="shared" ref="A3:A26" si="0">TRIM(LEFT(B3,(FIND(",",B3,1)-1)))</f>
         <v>Benyei</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="D3" s="9">
         <v>814146</v>
@@ -9296,19 +9322,19 @@
         <v>No</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Burgess</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="D4" s="9">
         <v>1024947</v>
@@ -9318,19 +9344,19 @@
         <v>No</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Buzard</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="D5" s="9">
         <v>9589807</v>
@@ -9340,19 +9366,19 @@
         <v>Yes</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Deaton</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="D6" s="9">
         <v>9593577</v>
@@ -9362,19 +9388,19 @@
         <v>Yes</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Derringer</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="D7" s="9">
         <v>516809</v>
@@ -9384,19 +9410,19 @@
         <v>No</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Fincham</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D8" s="9">
         <v>887429</v>
@@ -9406,19 +9432,19 @@
         <v>No</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Gibas</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="D9" s="9">
         <v>337270</v>
@@ -9428,19 +9454,19 @@
         <v>No</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Gibbs</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="D10" s="9">
         <v>258564</v>
@@ -9450,19 +9476,19 @@
         <v>Yes</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Glanville</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="D11" s="9">
         <v>2080576</v>
@@ -9472,19 +9498,19 @@
         <v>No</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Haun</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="D12" s="9">
         <v>80127</v>
@@ -9494,10 +9520,10 @@
         <v>No</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Kerr</v>
@@ -9506,7 +9532,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D13" s="9">
         <v>721839</v>
@@ -9516,19 +9542,19 @@
         <v>Yes</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>King</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="D14" s="9">
         <v>14842461</v>
@@ -9538,19 +9564,19 @@
         <v>Yes</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Michael</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="D15" s="9">
         <v>886994</v>
@@ -9560,10 +9586,10 @@
         <v>Yes</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Miller</v>
@@ -9572,7 +9598,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D16" s="9">
         <v>824383</v>
@@ -9582,10 +9608,10 @@
         <v>Yes</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Milliron</v>
@@ -9594,7 +9620,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D17" s="9">
         <v>654820</v>
@@ -9604,19 +9630,19 @@
         <v>Yes</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Prebonick</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="D18" s="9">
         <v>653863</v>
@@ -9626,19 +9652,19 @@
         <v>Yes</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Rice</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="D19" s="9">
         <v>10346504</v>
@@ -9648,19 +9674,19 @@
         <v>Yes</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Ringler</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>422</v>
       </c>
       <c r="D20" s="9">
         <v>9779525</v>
@@ -9670,19 +9696,19 @@
         <v>Yes</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Schumacher</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>424</v>
       </c>
       <c r="D21" s="9">
         <v>721810</v>
@@ -9692,19 +9718,19 @@
         <v>No</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sneed</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="D22" s="9">
         <v>8820292</v>
@@ -9714,19 +9740,19 @@
         <v>Yes</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Steiger</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="D23" s="9">
         <v>34162</v>
@@ -9736,19 +9762,19 @@
         <v>No</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Undercoffer</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="D24" s="9">
         <v>9387039</v>
@@ -9758,19 +9784,19 @@
         <v>No</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Weatherington-Rice</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="D25" s="9">
         <v>5975711</v>
@@ -9780,19 +9806,19 @@
         <v>Yes</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Wright</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="D26" s="9">
         <v>562455</v>
@@ -9802,10 +9828,10 @@
         <v>Yes</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
   </sheetData>
@@ -9875,19 +9901,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -9901,7 +9927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -9915,7 +9941,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9929,7 +9955,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -9943,7 +9969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -9957,7 +9983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -9971,7 +9997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -9985,7 +10011,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -9999,7 +10025,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -10013,7 +10039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -10027,7 +10053,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -10041,7 +10067,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -10055,7 +10081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -10069,7 +10095,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -10083,7 +10109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -10091,7 +10117,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -10099,7 +10125,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -10107,22 +10133,22 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>207</v>
       </c>
@@ -10140,19 +10166,19 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="41" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="53.265625" customWidth="1"/>
-    <col min="8" max="8" width="47.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -10184,7 +10210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10213,7 +10239,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10242,7 +10268,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -10271,7 +10297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -10297,7 +10323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10326,7 +10352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -10358,7 +10384,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -10387,7 +10413,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -10416,7 +10442,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -10445,7 +10471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -10477,7 +10503,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -10509,7 +10535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -10538,7 +10564,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -10570,7 +10596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -10599,7 +10625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -10628,7 +10654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -10654,7 +10680,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -10683,7 +10709,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -10712,7 +10738,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -10744,7 +10770,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
